--- a/src/main/resources/calc/instruction_n.xlsx
+++ b/src/main/resources/calc/instruction_n.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hilfstabellen" sheetId="1" state="visible" r:id="rId2"/>
@@ -231,14 +231,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00A933"/>
-        <bgColor rgb="FF008000"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00A933"/>
+        <bgColor rgb="FF008000"/>
       </patternFill>
     </fill>
     <fill>
@@ -323,11 +323,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -335,15 +339,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -359,22 +359,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -395,7 +395,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="171" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -482,11 +482,11 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.77"/>
@@ -606,7 +606,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" objects="true" scenarios="true"/>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A8:D8"/>
@@ -629,10 +628,10 @@
   <dimension ref="A6:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.33"/>
   </cols>
@@ -677,7 +676,7 @@
       <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.33"/>
   </cols>
@@ -752,10 +751,10 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.8"/>
@@ -956,7 +955,7 @@
       <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.8"/>
@@ -1190,7 +1189,7 @@
       <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.8"/>
@@ -1465,11 +1464,11 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.8"/>
